--- a/src/main/resources/Locations 1-11-2026.xlsx
+++ b/src/main/resources/Locations 1-11-2026.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12405" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -901,7 +901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C67" sqref="C67:C94"/>
     </sheetView>
   </sheetViews>
@@ -3256,7 +3256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B29"/>
     </sheetView>
   </sheetViews>
